--- a/biology/Botanique/Shanghai_International_Wine_and_Spirits_Fair/Shanghai_International_Wine_and_Spirits_Fair.xlsx
+++ b/biology/Botanique/Shanghai_International_Wine_and_Spirits_Fair/Shanghai_International_Wine_and_Spirits_Fair.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Shanghai International Wine and Spirits Fair (en français, la « Foire internationale de vins et spiritueux de Shanghai ») à Shanghai est un événement consacré aux professionnels de l’industrie de vins, liqueurs et spiritueux, en Chine et dans le monde entier. 
@@ -512,10 +524,12 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Shanghai International Wine and Spirits Fair offre environ un millier de catégories différentes de vins provenant de pays tels qu’Argentine, Chili, Allemagne, Nouvelle-Zélande, Portugal, Russie et autres[1].
-La prochaine édition aura lieu du 4 au 6 décembre 2014 à Shanghai[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Shanghai International Wine and Spirits Fair offre environ un millier de catégories différentes de vins provenant de pays tels qu’Argentine, Chili, Allemagne, Nouvelle-Zélande, Portugal, Russie et autres.
+La prochaine édition aura lieu du 4 au 6 décembre 2014 à Shanghai. 
 </t>
         </is>
       </c>
